--- a/Lab1/Lab1.3/lab1.3.xlsx
+++ b/Lab1/Lab1.3/lab1.3.xlsx
@@ -1,129 +1,286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studybox\school\SE357\SE357-Pratice-class\Lab1\Lab1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study-box\SE357-Pratice-class\Lab1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C8A548-F73E-4CDB-8B39-67984222BC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1F052-5C29-4D84-BE64-A10EFA49C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RLTM" sheetId="3" r:id="rId1"/>
-    <sheet name="RSource TM" sheetId="2" r:id="rId2"/>
-    <sheet name="RStakeholder TM" sheetId="4" r:id="rId3"/>
+    <sheet name="R list" sheetId="3" r:id="rId1"/>
+    <sheet name="RLTM" sheetId="5" r:id="rId2"/>
+    <sheet name="RSource TM" sheetId="2" r:id="rId3"/>
+    <sheet name="RStakeholder TM" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
-  <si>
-    <t>TC-001</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="70">
   <si>
     <t>Requirement ID</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>REQ-001</t>
-  </si>
-  <si>
-    <t>REQ-002</t>
-  </si>
-  <si>
-    <t>REQ-003</t>
-  </si>
-  <si>
-    <t>REQ-004</t>
-  </si>
-  <si>
-    <t>High-Level Requirement</t>
-  </si>
-  <si>
-    <t>Detailed Requirement</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>HL-001</t>
-  </si>
-  <si>
-    <t>DET-001</t>
-  </si>
-  <si>
-    <t>HL-002</t>
-  </si>
-  <si>
-    <t>DET-002</t>
-  </si>
-  <si>
-    <t>Implementation Component ID</t>
-  </si>
-  <si>
-    <t>IC-001</t>
-  </si>
-  <si>
-    <t>IC-002</t>
-  </si>
-  <si>
-    <t>IC-003</t>
-  </si>
-  <si>
-    <t>IC-004</t>
-  </si>
-  <si>
-    <t>User Requirement</t>
-  </si>
-  <si>
-    <t>Business Specification</t>
-  </si>
-  <si>
-    <t>Use Case Document</t>
-  </si>
-  <si>
-    <t>Stakeholder 1</t>
-  </si>
-  <si>
-    <t>Stakeholder 2</t>
-  </si>
-  <si>
-    <t>Stakeholder 3</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Industry Standards and Best Practices</t>
+  </si>
+  <si>
+    <t>User Interview and Surveys</t>
+  </si>
+  <si>
+    <t>Existing Documents</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>REQ-01-01</t>
+  </si>
+  <si>
+    <t>REQ-01-02</t>
+  </si>
+  <si>
+    <t>REQ-01-03</t>
+  </si>
+  <si>
+    <t>REQ-01-04</t>
+  </si>
+  <si>
+    <t>REQ-01-05</t>
+  </si>
+  <si>
+    <t>REQ-01-06</t>
+  </si>
+  <si>
+    <t>REQ-01-07</t>
+  </si>
+  <si>
+    <t>REQ-01-08</t>
+  </si>
+  <si>
+    <t>REQ-01-09</t>
+  </si>
+  <si>
+    <t>REQ-02-01</t>
+  </si>
+  <si>
+    <t>REQ-02-02</t>
+  </si>
+  <si>
+    <t>REQ-02-03</t>
+  </si>
+  <si>
+    <t>REQ-02-04</t>
+  </si>
+  <si>
+    <t>REQ-02-05</t>
+  </si>
+  <si>
+    <t>REQ-03-01</t>
+  </si>
+  <si>
+    <t>REQ-03-02</t>
+  </si>
+  <si>
+    <t>REQ-03-03</t>
+  </si>
+  <si>
+    <t>REQ-03-04</t>
+  </si>
+  <si>
+    <t>REQ-04-01</t>
+  </si>
+  <si>
+    <t>Hệ thống nên có xác thực bằng email</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng đăng ký tài khoản mới</t>
+  </si>
+  <si>
+    <t>Hệ thống nên có xác thực bằng số điện thoại</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng đăng nhập</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng đăng nhập bằng mã OTP</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng đăng nhập bằng email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống nên có khôi phục mật khẩu qua số điện thoại </t>
+  </si>
+  <si>
+    <t>Hệ thống nên có khôi phục mật khẩu qua email</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho người dùng thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho người dùng yêu cầu tạo cuộc hẹn bảo trì</t>
+  </si>
+  <si>
+    <t>Hệ thống nên có thông báo về kết quả bảo trì</t>
+  </si>
+  <si>
+    <t>Hệ thống nên hiển thị thông tin trạng thái bảo trì</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng nhận thông tin về lịch bảo trì</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho admin tạo lịch bảo trì</t>
+  </si>
+  <si>
+    <t>Hệ thống nên tự động tạo hợp đồng mẫu khi admin yêu cầu</t>
+  </si>
+  <si>
+    <t>Hệ thống nên hiển thị thông tin người dùng trên hợp đồng</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng gia hạn hợp đồng</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép người dùng tạo yêu cầu hoàn trả cọc- kết thúc hợp đồng</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép admin CRUD thông tin chủ căn hộ</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép admin CRUD thông tin căn hộ</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho phép admin CRUD thông báo</t>
+  </si>
+  <si>
+    <t>REQ-04-02</t>
+  </si>
+  <si>
+    <t>Hệ thống nên tạo các báo cáo thống kê cho admin</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho nhân viên RU thông tin chủ căn hộ</t>
+  </si>
+  <si>
+    <t>Hệ thông nên cho nhân viên xem thông tin căn hộ</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho nhân viên xem thông tin thông báo</t>
+  </si>
+  <si>
+    <t>Hệ thống nên cho nhân viên xem thống kê về phần thanh toán</t>
+  </si>
+  <si>
+    <t>REQ-04-03</t>
+  </si>
+  <si>
+    <t>REQ-04-04</t>
+  </si>
+  <si>
+    <t>REQ-04-05</t>
+  </si>
+  <si>
+    <t>REQ-04-06</t>
+  </si>
+  <si>
+    <t>REQ-04-07</t>
+  </si>
+  <si>
+    <t>REQ-04-08</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Rank 
+(1 - lowest imoprtance
+5 - highest importance)</t>
+  </si>
+  <si>
+    <t>Stakeholder Source
+U- Users, A - Administrators, S - Staff</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U,S,A</t>
+  </si>
+  <si>
+    <t>A,U,S</t>
+  </si>
+  <si>
+    <t>A,S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>U,A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +306,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +338,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -199,35 +368,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,249 +694,1953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664A867-58B1-42BF-9A37-54655A31954D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B2890A-180D-4D8E-B51F-565C5B3B20C5}">
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.5546875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147CC388-49E7-4E08-AC2B-078042A7F8EF}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F81150-14BB-471F-A1FF-F93DD6C57CE1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="4" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" cm="1">
+        <f t="array" ref="B2">SUM(IF('RSource TM'!B2:D2="x", 1, 0) * 1) + SUM(IF('RSource TM'!E2="x", 2, 0) )</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" cm="1">
+        <f t="array" ref="B3">SUM(IF('RSource TM'!B3:D3="x", 1, 0) * 1) + SUM(IF('RSource TM'!E3="x", 2, 0) )</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" cm="1">
+        <f t="array" ref="B4">SUM(IF('RSource TM'!B4:D4="x", 1, 0) * 1) + SUM(IF('RSource TM'!E4="x", 2, 0) )</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" cm="1">
+        <f t="array" ref="B5">SUM(IF('RSource TM'!B5:D5="x", 1, 0) * 1) + SUM(IF('RSource TM'!E5="x", 2, 0) )</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" cm="1">
+        <f t="array" ref="B6">SUM(IF('RSource TM'!B6:D6="x", 1, 0) * 1) + SUM(IF('RSource TM'!E6="x", 2, 0) )</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" cm="1">
+        <f t="array" ref="B7">SUM(IF('RSource TM'!B7:D7="x", 1, 0) * 1) + SUM(IF('RSource TM'!E7="x", 2, 0) )</f>
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" cm="1">
+        <f t="array" ref="B8">SUM(IF('RSource TM'!B8:D8="x", 1, 0) * 1) + SUM(IF('RSource TM'!E8="x", 2, 0) )</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" cm="1">
+        <f t="array" ref="B9">SUM(IF('RSource TM'!B9:D9="x", 1, 0) * 1) + SUM(IF('RSource TM'!E9="x", 2, 0) )</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" cm="1">
+        <f t="array" ref="B10">SUM(IF('RSource TM'!B10:D10="x", 1, 0) * 1) + SUM(IF('RSource TM'!E10="x", 2, 0) )</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" cm="1">
+        <f t="array" ref="B11">SUM(IF('RSource TM'!B11:D11="x", 1, 0) * 1) + SUM(IF('RSource TM'!E11="x", 2, 0) )</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" cm="1">
+        <f t="array" ref="B12">SUM(IF('RSource TM'!B12:D12="x", 1, 0) * 1) + SUM(IF('RSource TM'!E12="x", 2, 0) )</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" cm="1">
+        <f t="array" ref="B13">SUM(IF('RSource TM'!B13:D13="x", 1, 0) * 1) + SUM(IF('RSource TM'!E13="x", 2, 0) )</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" cm="1">
+        <f t="array" ref="B14">SUM(IF('RSource TM'!B14:D14="x", 1, 0) * 1) + SUM(IF('RSource TM'!E14="x", 2, 0) )</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" cm="1">
+        <f t="array" ref="B15">SUM(IF('RSource TM'!B15:D15="x", 1, 0) * 1) + SUM(IF('RSource TM'!E15="x", 2, 0) )</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" cm="1">
+        <f t="array" ref="B16">SUM(IF('RSource TM'!B16:D16="x", 1, 0) * 1) + SUM(IF('RSource TM'!E16="x", 2, 0) )</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" cm="1">
+        <f t="array" ref="B17">SUM(IF('RSource TM'!B17:D17="x", 1, 0) * 1) + SUM(IF('RSource TM'!E17="x", 2, 0) )</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" cm="1">
+        <f t="array" ref="B18">SUM(IF('RSource TM'!B18:D18="x", 1, 0) * 1) + SUM(IF('RSource TM'!E18="x", 2, 0) )</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" cm="1">
+        <f t="array" ref="B19">SUM(IF('RSource TM'!B19:D19="x", 1, 0) * 1) + SUM(IF('RSource TM'!E19="x", 2, 0) )</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" cm="1">
+        <f t="array" ref="B20">SUM(IF('RSource TM'!B20:D20="x", 1, 0) * 1) + SUM(IF('RSource TM'!E20="x", 2, 0) )</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" cm="1">
+        <f t="array" ref="B21">SUM(IF('RSource TM'!B21:D21="x", 1, 0) * 1) + SUM(IF('RSource TM'!E21="x", 2, 0) )</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" cm="1">
+        <f t="array" ref="B22">SUM(IF('RSource TM'!B22:D22="x", 1, 0) * 1) + SUM(IF('RSource TM'!E22="x", 2, 0) )</f>
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" cm="1">
+        <f t="array" ref="B23">SUM(IF('RSource TM'!B23:D23="x", 1, 0) * 1) + SUM(IF('RSource TM'!E23="x", 2, 0) )</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" cm="1">
+        <f t="array" ref="B24">SUM(IF('RSource TM'!B24:D24="x", 1, 0) * 1) + SUM(IF('RSource TM'!E24="x", 2, 0) )</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" cm="1">
+        <f t="array" ref="B25">SUM(IF('RSource TM'!B25:D25="x", 1, 0) * 1) + SUM(IF('RSource TM'!E25="x", 2, 0) )</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" cm="1">
+        <f t="array" ref="B26">SUM(IF('RSource TM'!B26:D26="x", 1, 0) * 1) + SUM(IF('RSource TM'!E26="x", 2, 0) )</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="5" cm="1">
+        <f t="array" ref="B27">SUM(IF('RSource TM'!B27:D27="x", 1, 0) * 1) + SUM(IF('RSource TM'!E27="x", 2, 0) )</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Lab1/Lab1.3/lab1.3.xlsx
+++ b/Lab1/Lab1.3/lab1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study-box\SE357-Pratice-class\Lab1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1F052-5C29-4D84-BE64-A10EFA49C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCC213-FBBE-443C-8A94-2AF5BA78AB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R list" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,9 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B2890A-180D-4D8E-B51F-565C5B3B20C5}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>68</v>
@@ -1273,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1454,10 +1451,12 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14" t="s">
@@ -1489,7 +1488,9 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1563,7 +1564,9 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
+      <c r="U17" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
@@ -1600,7 +1603,9 @@
         <v>68</v>
       </c>
       <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
+      <c r="U18" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
@@ -1635,7 +1640,9 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
+      <c r="U19" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
@@ -2308,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F81150-14BB-471F-A1FF-F93DD6C57CE1}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="96" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/Lab1/Lab1.3/lab1.3.xlsx
+++ b/Lab1/Lab1.3/lab1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study-box\SE357-Pratice-class\Lab1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCC213-FBBE-443C-8A94-2AF5BA78AB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7B434-82A4-4277-A976-A1D8E57B7BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R list" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="69">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664A867-58B1-42BF-9A37-54655A31954D}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,9 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B2890A-180D-4D8E-B51F-565C5B3B20C5}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V7" sqref="V7"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,10 +1167,10 @@
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1202,10 +1202,10 @@
       <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1237,10 +1237,10 @@
       <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1272,10 +1272,10 @@
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1599,9 +1599,7 @@
         <v>68</v>
       </c>
       <c r="R18" s="14"/>
-      <c r="S18" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14" t="s">
         <v>61</v>
@@ -1778,7 +1776,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>

--- a/Lab1/Lab1.3/lab1.3.xlsx
+++ b/Lab1/Lab1.3/lab1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study-box\SE357-Pratice-class\Lab1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7B434-82A4-4277-A976-A1D8E57B7BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4075A-E155-4B0F-8EF0-07448B121611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R list" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664A867-58B1-42BF-9A37-54655A31954D}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,9 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B2890A-180D-4D8E-B51F-565C5B3B20C5}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U17" sqref="U17"/>
+      <selection pane="topRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,9 +1676,11 @@
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="X20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
@@ -1711,7 +1713,7 @@
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
@@ -1776,7 +1778,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
